--- a/2. Analysis/ttc_2_ranges_missing_bound_rows.xlsx
+++ b/2. Analysis/ttc_2_ranges_missing_bound_rows.xlsx
@@ -539,7 +539,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B4" s="2">
         <v>43352</v>
